--- a/BrancheIntermediare/ig/StructureDefinition-fr-observation-radiation-exposure-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-observation-radiation-exposure-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:46:30+00:00</t>
+    <t>2025-12-03T16:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-observation-radiation-exposure-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-observation-radiation-exposure-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T16:47:23+00:00</t>
+    <t>2025-12-04T14:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/BrancheIntermediare/ig/StructureDefinition-fr-observation-radiation-exposure-document.xlsx
+++ b/BrancheIntermediare/ig/StructureDefinition-fr-observation-radiation-exposure-document.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T14:08:40+00:00</t>
+    <t>2025-12-05T10:50:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1372,10 +1372,10 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>Observation.performer:professionnelAuthorisantExposition</t>
-  </si>
-  <si>
-    <t>professionnelAuthorisantExposition</t>
+    <t>Observation.performer:professionnelAutorisantExposition</t>
+  </si>
+  <si>
+    <t>professionnelAutorisantExposition</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-practitionerRole-document)
@@ -1514,7 +1514,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
+    <t>Localisation anatomique en SNOMED CT</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
@@ -1540,6 +1540,100 @@
   </si>
   <si>
     <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.id</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension:precisionTopographique</t>
+  </si>
+  <si>
+    <t>precisionTopographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {procedure-targetBodyStructure}
+</t>
+  </si>
+  <si>
+    <t>Modificateurs topographiques</t>
+  </si>
+  <si>
+    <t>The target body site used for this procedure.  Multiple locations are allowed.</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension:precisionTopographique.id</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension:precisionTopographique.extension</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension:precisionTopographique.url</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/procedure-targetBodyStructure</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension:precisionTopographique.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/document/core/StructureDefinition/fr-body-structure-document)
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.coding</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.text</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1898,9 +1992,6 @@
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/imaging-r5/ValueSet/im-gray-square-units</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2248,7 +2339,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP75"/>
+  <dimension ref="A1:AP84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2257,9 +2348,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.78515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="27.73046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -8340,7 +8431,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>479</v>
       </c>
@@ -8353,13 +8444,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
@@ -8488,20 +8579,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>490</v>
+        <v>168</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8525,13 +8612,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8549,7 +8636,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>489</v>
+        <v>170</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8561,7 +8648,7 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8570,10 +8657,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>497</v>
+        <v>171</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8584,21 +8671,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8610,16 +8697,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>499</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>501</v>
+        <v>174</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>502</v>
+        <v>142</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8657,59 +8744,61 @@
         <v>82</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>498</v>
+        <v>177</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>505</v>
+        <v>171</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8730,17 +8819,15 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8789,45 +8876,45 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>507</v>
+        <v>177</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8838,7 +8925,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8850,20 +8937,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>517</v>
+        <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>518</v>
+        <v>168</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8911,19 +8994,19 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>516</v>
+        <v>170</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8932,10 +9015,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>523</v>
+        <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>524</v>
+        <v>171</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8946,10 +9029,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8960,7 +9043,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8972,13 +9055,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>168</v>
+        <v>501</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>169</v>
+        <v>502</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9017,31 +9100,31 @@
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -9053,7 +9136,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9064,21 +9147,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9090,16 +9173,16 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>140</v>
+        <v>505</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>174</v>
+        <v>506</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>142</v>
+        <v>507</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9107,7 +9190,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>82</v>
@@ -9149,19 +9232,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>177</v>
+        <v>509</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9173,7 +9256,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9184,46 +9267,42 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>139</v>
+        <v>512</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -9271,19 +9350,19 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
@@ -9306,10 +9385,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9320,7 +9399,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9329,19 +9408,23 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>533</v>
+        <v>207</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>534</v>
+        <v>208</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9389,16 +9472,16 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>532</v>
+        <v>212</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9410,10 +9493,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>537</v>
+        <v>213</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>538</v>
+        <v>214</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9424,10 +9507,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9447,19 +9530,23 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>533</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>540</v>
+        <v>265</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9507,7 +9594,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>539</v>
+        <v>269</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9516,7 +9603,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9528,10 +9615,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>537</v>
+        <v>270</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9542,10 +9629,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9571,16 +9658,16 @@
         <v>191</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9605,13 +9692,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>117</v>
+        <v>370</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9629,7 +9716,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9647,13 +9734,13 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9664,10 +9751,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9678,7 +9765,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9690,20 +9777,18 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>191</v>
+        <v>529</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9727,13 +9812,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9751,13 +9836,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
@@ -9769,27 +9854,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>82</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9803,7 +9888,7 @@
         <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
@@ -9812,18 +9897,18 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9871,7 +9956,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9889,27 +9974,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>82</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9920,7 +10005,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9932,16 +10017,20 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>167</v>
+        <v>547</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9989,19 +10078,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>552</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10010,10 +10099,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10024,10 +10113,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10038,7 +10127,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10047,20 +10136,18 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>570</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>571</v>
+        <v>168</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10109,19 +10196,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>569</v>
+        <v>170</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10130,10 +10217,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>575</v>
+        <v>171</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10144,14 +10231,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10167,19 +10254,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>577</v>
+        <v>139</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>578</v>
+        <v>140</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>579</v>
+        <v>174</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>580</v>
+        <v>142</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10229,7 +10316,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>576</v>
+        <v>177</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10241,7 +10328,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10250,10 +10337,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>581</v>
+        <v>171</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10264,14 +10351,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10284,25 +10371,25 @@
         <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>517</v>
+        <v>139</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>585</v>
+        <v>142</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>586</v>
+        <v>148</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10351,7 +10438,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10363,7 +10450,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10372,10 +10459,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>587</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>588</v>
+        <v>136</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10386,10 +10473,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10412,13 +10499,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>167</v>
+        <v>563</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>168</v>
+        <v>564</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>169</v>
+        <v>565</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10469,7 +10556,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>170</v>
+        <v>562</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10478,10 +10565,10 @@
         <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10490,10 +10577,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>171</v>
+        <v>568</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10504,21 +10591,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10530,17 +10617,15 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>139</v>
+        <v>563</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>140</v>
+        <v>570</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10589,19 +10674,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>177</v>
+        <v>569</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10610,10 +10695,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>171</v>
+        <v>572</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10624,45 +10709,45 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>142</v>
+        <v>576</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>148</v>
+        <v>577</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10687,13 +10772,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>82</v>
+        <v>579</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10711,31 +10796,31 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>82</v>
+        <v>580</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>136</v>
+        <v>469</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10746,10 +10831,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10757,10 +10842,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10769,22 +10854,22 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>368</v>
+        <v>586</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10809,11 +10894,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10831,13 +10918,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -10849,27 +10936,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>375</v>
+        <v>581</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>376</v>
+        <v>469</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10877,34 +10964,32 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>444</v>
+        <v>593</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10929,11 +11014,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z72" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10951,7 +11038,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10969,27 +11056,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>448</v>
+        <v>594</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11012,20 +11099,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11049,13 +11132,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11073,7 +11156,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11082,7 +11165,7 @@
         <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11094,10 +11177,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>136</v>
+        <v>567</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>458</v>
+        <v>598</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11108,14 +11191,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11131,23 +11214,21 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>191</v>
+        <v>600</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>461</v>
+        <v>601</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>462</v>
+        <v>602</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11171,13 +11252,13 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11195,7 +11276,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11213,27 +11294,27 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>468</v>
+        <v>604</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>469</v>
+        <v>605</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11253,23 +11334,21 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>83</v>
+        <v>607</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11317,7 +11396,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11338,20 +11417,1110 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>523</v>
+        <v>604</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>524</v>
+        <v>611</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP75" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y80" s="2"/>
+      <c r="Z80" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP75">
+  <autoFilter ref="A1:AP84">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11361,7 +12530,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
